--- a/config/Datas/test/full_type.xlsx
+++ b/config/Datas/test/full_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban\config\Datas\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AshFrame\luban\config\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CE6A64-398F-44D7-B4FB-EA85E08FA9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBF9084-C596-4C91-9311-270F5554E59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11280" yWindow="8295" windowWidth="20190" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="104">
   <si>
     <t>##</t>
-  </si>
-  <si>
-    <t>row:true</t>
   </si>
   <si>
     <t>title_rows:4</t>
@@ -825,7 +822,7 @@
   <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -851,184 +848,181 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" t="s">
-        <v>18</v>
-      </c>
       <c r="S2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="4"/>
       <c r="V2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" t="s">
         <v>19</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>20</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>26</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>27</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>29</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" t="s">
+      <c r="AB3" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" t="s">
         <v>41</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>41</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AH3" t="s">
         <v>41</v>
       </c>
-      <c r="AE3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="AI3" t="s">
         <v>42</v>
       </c>
-      <c r="AG3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>43</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1061,64 +1055,64 @@
         <v>111111111</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O6">
         <v>1988</v>
       </c>
       <c r="P6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="V6" t="s">
         <v>53</v>
       </c>
-      <c r="S6" t="s">
-        <v>92</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>54</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>55</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="AB6" t="s">
         <v>57</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>58</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>59</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>60</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>61</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>62</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>63</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>64</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>65</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>66</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
@@ -1156,69 +1150,69 @@
         <v>112233445566</v>
       </c>
       <c r="M7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O7">
         <v>1987</v>
       </c>
       <c r="P7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V7" t="s">
         <v>70</v>
       </c>
-      <c r="S7" t="s">
-        <v>93</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>71</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="X7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y7" s="2" t="s">
+      <c r="AB7" t="s">
         <v>73</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>74</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>75</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>76</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>77</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>78</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>79</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>80</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>81</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>82</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1251,69 +1245,69 @@
         <v>111111111</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8">
         <v>1988</v>
       </c>
       <c r="P8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V8" t="s">
         <v>53</v>
       </c>
-      <c r="S8" t="s">
-        <v>94</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>54</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>55</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="AB8" t="s">
         <v>57</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>58</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>59</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>60</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>61</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>62</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>63</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>64</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>65</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>66</v>
-      </c>
       <c r="AK8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1346,69 +1340,69 @@
         <v>111111111</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O9">
         <v>1988</v>
       </c>
       <c r="P9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" t="s">
         <v>52</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
+        <v>93</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V9" t="s">
         <v>53</v>
       </c>
-      <c r="S9" t="s">
-        <v>94</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>54</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>55</v>
       </c>
-      <c r="X9" t="s">
-        <v>56</v>
-      </c>
       <c r="Y9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC9" t="s">
         <v>58</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>59</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>60</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>61</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>62</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>63</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>64</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>65</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>66</v>
-      </c>
       <c r="AK9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1441,69 +1435,69 @@
         <v>111111111</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O10">
         <v>1988</v>
       </c>
       <c r="P10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" t="s">
         <v>52</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="V10" t="s">
         <v>53</v>
       </c>
-      <c r="S10" t="s">
-        <v>95</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>54</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>55</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="AB10" t="s">
         <v>57</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>58</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>59</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>60</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>61</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>62</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>63</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>64</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>65</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>66</v>
-      </c>
       <c r="AK10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1536,64 +1530,64 @@
         <v>111111111</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O11">
         <v>1988</v>
       </c>
       <c r="P11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" t="s">
         <v>52</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>53</v>
       </c>
       <c r="T11" s="3"/>
       <c r="V11" t="s">
+        <v>53</v>
+      </c>
+      <c r="W11" t="s">
         <v>54</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>55</v>
       </c>
-      <c r="X11" t="s">
-        <v>56</v>
-      </c>
       <c r="Y11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC11" t="s">
         <v>58</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>59</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>60</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>61</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>62</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>63</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>64</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>65</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>66</v>
-      </c>
       <c r="AK11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1626,64 +1620,64 @@
         <v>111111111</v>
       </c>
       <c r="M12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O12">
         <v>1988</v>
       </c>
       <c r="P12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" t="s">
         <v>52</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>53</v>
       </c>
       <c r="T12" s="3"/>
       <c r="V12" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" t="s">
         <v>54</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>55</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Y12" s="2" t="s">
+      <c r="AB12" t="s">
         <v>57</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>58</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>59</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>60</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>61</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>62</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>63</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>64</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>65</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>66</v>
-      </c>
       <c r="AK12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1698,7 +1692,7 @@
         <v>10003</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13">
         <v>1.28</v>
@@ -1716,69 +1710,69 @@
         <v>111111111</v>
       </c>
       <c r="M13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O13">
         <v>1988</v>
       </c>
       <c r="P13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" t="s">
         <v>52</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
+        <v>95</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V13" t="s">
         <v>53</v>
       </c>
-      <c r="S13" t="s">
-        <v>96</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>54</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>55</v>
       </c>
-      <c r="X13" t="s">
-        <v>56</v>
-      </c>
       <c r="Y13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC13" t="s">
         <v>58</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>59</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>60</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>61</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>62</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>63</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>64</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>65</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>66</v>
-      </c>
       <c r="AK13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1790,7 +1784,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14">
         <v>13234234234</v>
@@ -1811,69 +1805,69 @@
         <v>111111111</v>
       </c>
       <c r="M14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O14">
         <v>1988</v>
       </c>
       <c r="P14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" t="s">
         <v>52</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
+        <v>96</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="V14" t="s">
         <v>53</v>
       </c>
-      <c r="S14" t="s">
-        <v>97</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>54</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>55</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Y14" s="2" t="s">
+      <c r="AB14" t="s">
         <v>57</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>58</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>59</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>60</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>61</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>62</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>63</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>64</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>65</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>66</v>
-      </c>
       <c r="AK14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1885,7 +1879,7 @@
         <v>128</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15">
         <v>13234234234</v>
@@ -1906,64 +1900,64 @@
         <v>111111111</v>
       </c>
       <c r="M15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O15">
         <v>1988</v>
       </c>
       <c r="P15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" t="s">
         <v>52</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
+        <v>96</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="V15" t="s">
         <v>53</v>
       </c>
-      <c r="S15" t="s">
-        <v>97</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>54</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>55</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="AB15" t="s">
         <v>57</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>58</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>59</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>60</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>61</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>62</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>63</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>64</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>65</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>66</v>
-      </c>
       <c r="AK15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
